--- a/Material de Apoyo/ballon_dor_1956_2025.xlsx
+++ b/Material de Apoyo/ballon_dor_1956_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cuarto Semestre\Desarrollo de aplicaciones moviles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabbo\Desktop\Nueva carpeta\WikiApp-BalonDeOro\Material de Apoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD168B62-ED91-4658-A99F-496F151D6333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF2BA6-B4B9-4224-93C7-D988BFC0768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="182">
   <si>
     <t>Año</t>
   </si>
@@ -577,9 +574,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>asta aquí llegue</t>
   </si>
   <si>
     <t xml:space="preserve">mejor jugador del mundial de 1974 </t>
@@ -589,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +593,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -626,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,9 +665,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,9 +705,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,26 +740,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,26 +775,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +966,7 @@
     <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +998,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1956</v>
       </c>
@@ -1061,7 +1030,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1957</v>
       </c>
@@ -1093,7 +1062,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1958</v>
       </c>
@@ -1125,7 +1094,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1959</v>
       </c>
@@ -1157,7 +1126,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1960</v>
       </c>
@@ -1189,7 +1158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1961</v>
       </c>
@@ -1221,7 +1190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1962</v>
       </c>
@@ -1253,7 +1222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1963</v>
       </c>
@@ -1285,7 +1254,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1964</v>
       </c>
@@ -1316,11 +1285,8 @@
       <c r="J10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1965</v>
       </c>
@@ -1352,7 +1318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1966</v>
       </c>
@@ -1383,8 +1349,9 @@
       <c r="J12" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1967</v>
       </c>
@@ -1416,7 +1383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1968</v>
       </c>
@@ -1448,7 +1415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1969</v>
       </c>
@@ -1480,7 +1447,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1970</v>
       </c>
@@ -1628,7 +1595,7 @@
         <v>176</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>77</v>
